--- a/assorted_lived.xlsx
+++ b/assorted_lived.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hardiksottany/Developer/lmanagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEA5D489-FD13-0946-85F5-D8D6E2C703A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE444821-1857-494F-B92B-A0A03DD9CD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16840" activeTab="1"/>
+    <workbookView xWindow="1500" yWindow="1320" windowWidth="27640" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="assorted_lived" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="173">
   <si>
     <t>DFIA</t>
   </si>
@@ -549,12 +549,15 @@
   </si>
   <si>
     <t>BALANCE $</t>
+  </si>
+  <si>
+    <t>0310743561</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -1051,7 +1054,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1061,6 +1064,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1416,7 +1420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ76"/>
   <sheetViews>
@@ -9070,7 +9074,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ76">
+  <autoFilter ref="A1:AJ76" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="098/2009"/>
@@ -9083,14 +9087,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9153,8 +9157,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>133</v>
+      <c r="A2" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="B2" s="6">
         <v>41486</v>
@@ -9169,7 +9173,7 @@
         <v>332402.21000000002</v>
       </c>
       <c r="F2" s="7">
-        <v>254017</v>
+        <v>107957</v>
       </c>
       <c r="G2" s="7">
         <v>20000</v>
@@ -9196,7 +9200,7 @@
       </c>
       <c r="N2" s="7">
         <f>F2-I2-L2</f>
-        <v>51327</v>
+        <v>-94733</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -9369,7 +9373,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" ref="I3:I13" si="2">H6*G6</f>
+        <f t="shared" ref="I6:I13" si="2">H6*G6</f>
         <v>82200</v>
       </c>
       <c r="J6" s="7">
@@ -9734,7 +9738,7 @@
       </c>
       <c r="F14" s="8">
         <f>SUM(F2:F13)</f>
-        <v>1603597</v>
+        <v>1457537</v>
       </c>
       <c r="G14" s="8">
         <f>SUM(G2:G13)</f>
@@ -9760,7 +9764,7 @@
       </c>
       <c r="N14" s="8">
         <f>SUM(N2:N13)</f>
-        <v>171492</v>
+        <v>25432</v>
       </c>
     </row>
   </sheetData>
